--- a/WebApplication23/StaticFiles/Images/Book2.xlsx
+++ b/WebApplication23/StaticFiles/Images/Book2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Bạn đọc câu hỏi và chọn câu trả lời phù hợp nhất cho câu hỏi.</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Kính chào quý thầy cô</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -674,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -715,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>36</v>
@@ -756,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
